--- a/settings/data/Buff.xlsx
+++ b/settings/data/Buff.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\touhou_survivors\settings\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78918F44-210A-4AFA-A194-9034D3F9E24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,6 +20,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,20 +29,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
-  <si>
-    <t>Buff分类序号
-结晶，符卡，道具，羁绊</t>
-  </si>
-  <si>
-    <t>Buff序号</t>
-  </si>
-  <si>
-    <t>Buff类型
-一次性，限时，持续</t>
-  </si>
-  <si>
-    <t>持续时间依存</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>BuffID</t>
+  </si>
+  <si>
+    <t>中文名</t>
+  </si>
+  <si>
+    <r>
+      <t>Buff类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Buff是永久的、持续的还是立即生效的
+forever.永久：该Buff激活后在本局游戏内永久生效，除非生成该Buff的东西本身没了，这样的话该Buff就会消失；
+continuous.持续：该Buff激活后将持续一段时间，到达时限后消失；
+disposable.即时：该Buff激活后将立刻改变对应数值（改变是永久的，不会随Buff的消失而失效），随后消失。</t>
+    </r>
   </si>
   <si>
     <t>持续时间</t>
@@ -58,58 +74,95 @@
     <t>基础Buff数值</t>
   </si>
   <si>
-    <t>基础Buff数值依存</t>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>array_str</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type_Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Category_Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keep_Exist</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keep_Time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff_Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base_Buff_Value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base_Buff_Depend</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>id</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>type_id</t>
+  </si>
+  <si>
+    <t>keep_time</t>
+  </si>
+  <si>
+    <t>buff_type</t>
+  </si>
+  <si>
+    <t>base_buff_value</t>
+  </si>
+  <si>
+    <t>最大符力_永久</t>
+  </si>
+  <si>
+    <t>forever</t>
+  </si>
+  <si>
+    <t>max_mana</t>
+  </si>
+  <si>
+    <t>弹幕速度加成_永久</t>
+  </si>
+  <si>
+    <t>bullet_speed</t>
+  </si>
+  <si>
+    <t>残机_即时</t>
+  </si>
+  <si>
+    <t>disposable</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>弹幕发射数量_永久</t>
+  </si>
+  <si>
+    <t>magical_times</t>
+  </si>
+  <si>
+    <t>体术防御_永久</t>
+  </si>
+  <si>
+    <t>pyhsical_defense</t>
+  </si>
+  <si>
+    <t>弹幕伤害加成_永久</t>
+  </si>
+  <si>
+    <t>magical_addition</t>
+  </si>
+  <si>
+    <t>血量_即时</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>符力_即时</t>
+  </si>
+  <si>
+    <t>mana</t>
+  </si>
+  <si>
+    <t>符力消耗_永久</t>
+  </si>
+  <si>
+    <t>mana_cost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,30 +171,359 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -149,34 +531,335 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -426,129 +1109,290 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="35.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="19.6363636363636" customWidth="1"/>
+    <col min="3" max="3" width="29.3636363636364" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.5454545454545" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.5454545454545" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="177" spans="1:8">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="70" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" t="str">
+        <f>"""buff_"&amp;E4&amp;"_"&amp;C4&amp;""""</f>
+        <v>"buff_max_mana_forever"</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="str">
+        <f>"""buff_"&amp;E5&amp;"_"&amp;C5&amp;""""</f>
+        <v>"buff_bullet_speed_forever"</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="str">
+        <f>"""buff_"&amp;E6&amp;"_"&amp;C6&amp;""""</f>
+        <v>"buff_live_disposable"</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="str">
+        <f>"""buff_"&amp;E7&amp;"_"&amp;C7&amp;""""</f>
+        <v>"buff_magical_times_forever"</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="str">
+        <f>"""buff_"&amp;E8&amp;"_"&amp;C8&amp;""""</f>
+        <v>"buff_pyhsical_defense_forever"</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="str">
+        <f>"""buff_"&amp;E9&amp;"_"&amp;C9&amp;""""</f>
+        <v>"buff_magical_addition_forever"</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="str">
+        <f>"""buff_"&amp;E10&amp;"_"&amp;C10&amp;""""</f>
+        <v>"buff_hp_disposable"</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="str">
+        <f>"""buff_"&amp;E11&amp;"_"&amp;C11&amp;""""</f>
+        <v>"buff_mana_disposable"</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="3">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" t="str">
+        <f>"""buff_"&amp;E12&amp;"_"&amp;C12&amp;""""</f>
+        <v>"buff_mana_cost_forever"</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
+      <c r="E12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/Buff.xlsx
+++ b/settings/data/Buff.xlsx
@@ -47,6 +47,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Buff类型</t>
     </r>
     <r>
@@ -779,12 +786,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1118,241 +1122,241 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A4" sqref="$A4:$XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="35.3636363636364" customWidth="1"/>
     <col min="2" max="2" width="19.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="29.3636363636364" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.5454545454545" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.5454545454545" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="3" max="3" width="29.3636363636364" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.5454545454545" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.5454545454545" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="177" spans="1:8">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="1" customFormat="1" ht="177" spans="1:8">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="str">
-        <f>"""buff_"&amp;E4&amp;"_"&amp;C4&amp;""""</f>
-        <v>"buff_max_mana_forever"</v>
-      </c>
-      <c r="B4" s="7" t="s">
+        <f>"buff_"&amp;E4&amp;"_"&amp;C4</f>
+        <v>buff_max_mana_forever</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="str">
-        <f>"""buff_"&amp;E5&amp;"_"&amp;C5&amp;""""</f>
-        <v>"buff_bullet_speed_forever"</v>
-      </c>
-      <c r="B5" s="7" t="s">
+        <f t="shared" ref="A5:A12" si="0">"buff_"&amp;E5&amp;"_"&amp;C5</f>
+        <v>buff_bullet_speed_forever</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="str">
-        <f>"""buff_"&amp;E6&amp;"_"&amp;C6&amp;""""</f>
-        <v>"buff_live_disposable"</v>
-      </c>
-      <c r="B6" s="7" t="s">
+        <f t="shared" si="0"/>
+        <v>buff_live_disposable</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="str">
-        <f>"""buff_"&amp;E7&amp;"_"&amp;C7&amp;""""</f>
-        <v>"buff_magical_times_forever"</v>
-      </c>
-      <c r="B7" s="7" t="s">
+        <f t="shared" si="0"/>
+        <v>buff_magical_times_forever</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="str">
-        <f>"""buff_"&amp;E8&amp;"_"&amp;C8&amp;""""</f>
-        <v>"buff_pyhsical_defense_forever"</v>
-      </c>
-      <c r="B8" s="7" t="s">
+        <f t="shared" si="0"/>
+        <v>buff_pyhsical_defense_forever</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="str">
-        <f>"""buff_"&amp;E9&amp;"_"&amp;C9&amp;""""</f>
-        <v>"buff_magical_addition_forever"</v>
-      </c>
-      <c r="B9" s="7" t="s">
+        <f t="shared" si="0"/>
+        <v>buff_magical_addition_forever</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="str">
-        <f>"""buff_"&amp;E10&amp;"_"&amp;C10&amp;""""</f>
-        <v>"buff_hp_disposable"</v>
+        <f t="shared" si="0"/>
+        <v>buff_hp_disposable</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="str">
-        <f>"""buff_"&amp;E11&amp;"_"&amp;C11&amp;""""</f>
-        <v>"buff_mana_disposable"</v>
+        <f t="shared" si="0"/>
+        <v>buff_mana_disposable</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="str">
-        <f>"""buff_"&amp;E12&amp;"_"&amp;C12&amp;""""</f>
-        <v>"buff_mana_cost_forever"</v>
+        <f t="shared" si="0"/>
+        <v>buff_mana_cost_forever</v>
       </c>
       <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>1</v>
       </c>
     </row>

--- a/settings/data/Buff.xlsx
+++ b/settings/data/Buff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EE8FBE-5075-4021-A1ED-82A4AE91E104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F479D6-E95E-4CF6-B44B-B3BC7CB021D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="4020" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5595" yWindow="3045" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buff" sheetId="1" r:id="rId1"/>
@@ -100,46 +100,25 @@
     <t>forever</t>
   </si>
   <si>
-    <t>max_mana</t>
-  </si>
-  <si>
     <t>弹幕速度加成_永久</t>
   </si>
   <si>
-    <t>bullet_speed</t>
-  </si>
-  <si>
     <t>残机_即时</t>
   </si>
   <si>
     <t>disposable</t>
   </si>
   <si>
-    <t>live</t>
-  </si>
-  <si>
     <t>弹幕发射数量_永久</t>
   </si>
   <si>
-    <t>magical_times</t>
-  </si>
-  <si>
     <t>体术防御_永久</t>
   </si>
   <si>
-    <t>pyhsical_defense</t>
-  </si>
-  <si>
     <t>弹幕伤害加成_永久</t>
   </si>
   <si>
-    <t>magical_addition</t>
-  </si>
-  <si>
     <t>血量_即时</t>
-  </si>
-  <si>
-    <t>hp</t>
   </si>
   <si>
     <t>符力_即时</t>
@@ -164,6 +143,28 @@
   <si>
     <t>property</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mana_max</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet_speed_ratio</t>
+  </si>
+  <si>
+    <t>player_life_addi</t>
+  </si>
+  <si>
+    <t>danma_times</t>
+  </si>
+  <si>
+    <t>defence_melee</t>
+  </si>
+  <si>
+    <t>player_bullet_damage_ratio</t>
+  </si>
+  <si>
+    <t>player_hp</t>
   </si>
 </sst>
 </file>
@@ -229,7 +230,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -247,6 +248,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,7 +522,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -540,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -582,13 +586,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -597,7 +601,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="str">
         <f>"buff_"&amp;E4&amp;"_"&amp;C4</f>
-        <v>buff_max_mana_forever</v>
+        <v>buff_mana_max_forever</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -605,8 +609,8 @@
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
+      <c r="E4" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="F4" s="2">
         <v>500</v>
@@ -615,16 +619,16 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="str">
         <f t="shared" ref="A5:A12" si="0">"buff_"&amp;E5&amp;"_"&amp;C5</f>
-        <v>buff_bullet_speed_forever</v>
+        <v>buff_bullet_speed_ratio_forever</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2">
         <v>0.2</v>
@@ -633,16 +637,16 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>buff_live_disposable</v>
+        <v>buff_player_life_addi_disposable</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -651,16 +655,16 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>buff_magical_times_forever</v>
+        <v>buff_danma_times_forever</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -669,16 +673,16 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>buff_pyhsical_defense_forever</v>
+        <v>buff_defence_melee_forever</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2">
         <v>0.2</v>
@@ -687,16 +691,16 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>buff_magical_addition_forever</v>
+        <v>buff_player_bullet_damage_ratio_forever</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F9" s="2">
         <v>0.2</v>
@@ -705,16 +709,16 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>buff_hp_disposable</v>
+        <v>buff_player_hp_disposable</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2">
         <v>50</v>
@@ -726,13 +730,13 @@
         <v>buff_mana_disposable</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2">
         <v>5</v>
@@ -744,13 +748,13 @@
         <v>buff_mana_cost_forever</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>

--- a/settings/data/Buff.xlsx
+++ b/settings/data/Buff.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F479D6-E95E-4CF6-B44B-B3BC7CB021D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5595" yWindow="3045" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Buff" sheetId="1" r:id="rId1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>string</t>
   </si>
@@ -88,9 +82,15 @@
     <t>*</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>keep_time</t>
   </si>
   <si>
+    <t>property</t>
+  </si>
+  <si>
     <t>base_buff_value</t>
   </si>
   <si>
@@ -100,27 +100,48 @@
     <t>forever</t>
   </si>
   <si>
+    <t>mana_max</t>
+  </si>
+  <si>
     <t>弹幕速度加成_永久</t>
   </si>
   <si>
+    <t>bullet_speed_ratio</t>
+  </si>
+  <si>
     <t>残机_即时</t>
   </si>
   <si>
     <t>disposable</t>
   </si>
   <si>
+    <t>player_life_addi</t>
+  </si>
+  <si>
     <t>弹幕发射数量_永久</t>
   </si>
   <si>
+    <t>danma_times</t>
+  </si>
+  <si>
     <t>体术防御_永久</t>
   </si>
   <si>
+    <t>defence_melee</t>
+  </si>
+  <si>
     <t>弹幕伤害加成_永久</t>
   </si>
   <si>
+    <t>player_bullet_damage_ratio</t>
+  </si>
+  <si>
     <t>血量_即时</t>
   </si>
   <si>
+    <t>player_hp</t>
+  </si>
+  <si>
     <t>符力_即时</t>
   </si>
   <si>
@@ -131,47 +152,19 @@
   </si>
   <si>
     <t>mana_cost</t>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>property</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mana_max</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bullet_speed_ratio</t>
-  </si>
-  <si>
-    <t>player_life_addi</t>
-  </si>
-  <si>
-    <t>danma_times</t>
-  </si>
-  <si>
-    <t>defence_melee</t>
-  </si>
-  <si>
-    <t>player_bullet_damage_ratio</t>
-  </si>
-  <si>
-    <t>player_hp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,36 +180,352 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -224,9 +533,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -240,30 +791,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -513,38 +1108,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="35.375" customWidth="1"/>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="3" width="29.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.3727272727273" customWidth="1"/>
+    <col min="2" max="2" width="19.6272727272727" customWidth="1"/>
+    <col min="3" max="3" width="29.3727272727273" style="2" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.8181818181818" style="2" customWidth="1"/>
     <col min="6" max="6" width="20.5" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>26</v>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -556,213 +1151,213 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="1" customFormat="1" ht="177" spans="1:8">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="1" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>25</v>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" t="str">
         <f>"buff_"&amp;E4&amp;"_"&amp;C4</f>
         <v>buff_mana_max_forever</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" t="str">
         <f t="shared" ref="A5:A12" si="0">"buff_"&amp;E5&amp;"_"&amp;C5</f>
         <v>buff_bullet_speed_ratio_forever</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>buff_player_life_addi_disposable</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>buff_danma_times_forever</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>buff_defence_melee_forever</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2">
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>buff_player_bullet_damage_ratio_forever</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2">
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>buff_player_hp_disposable</v>
       </c>
       <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>buff_mana_disposable</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>buff_mana_cost_forever</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/Buff.xlsx
+++ b/settings/data/Buff.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388C9C7E-F84F-4058-8EEF-B9A7165C13BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView xWindow="2040" yWindow="3030" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buff" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>string</t>
   </si>
@@ -153,18 +159,24 @@
   <si>
     <t>mana_cost</t>
   </si>
+  <si>
+    <t>dash</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲刺</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>continuous</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,352 +192,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -533,255 +229,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -803,62 +257,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1108,30 +524,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="35.3727272727273" customWidth="1"/>
-    <col min="2" max="2" width="19.6272727272727" customWidth="1"/>
-    <col min="3" max="3" width="29.3727272727273" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="29.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.8181818181818" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="20.5" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1151,7 +567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="177" spans="1:8">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1173,7 +589,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1193,7 +609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="str">
         <f>"buff_"&amp;E4&amp;"_"&amp;C4</f>
         <v>buff_mana_max_forever</v>
@@ -1211,7 +627,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="str">
         <f t="shared" ref="A5:A12" si="0">"buff_"&amp;E5&amp;"_"&amp;C5</f>
         <v>buff_bullet_speed_ratio_forever</v>
@@ -1229,7 +645,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>buff_player_life_addi_disposable</v>
@@ -1247,7 +663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>buff_danma_times_forever</v>
@@ -1265,7 +681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>buff_defence_melee_forever</v>
@@ -1283,7 +699,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>buff_player_bullet_damage_ratio_forever</v>
@@ -1301,7 +717,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>buff_player_hp_disposable</v>
@@ -1319,7 +735,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>buff_mana_disposable</v>
@@ -1337,7 +753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>buff_mana_cost_forever</v>
@@ -1355,9 +771,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/Buff.xlsx
+++ b/settings/data/Buff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectFiles\LOO\touhou_LOO-master\touhou_LOO-master\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388C9C7E-F84F-4058-8EEF-B9A7165C13BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32ACA9E1-FFE9-4334-B3F0-663A227B6967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="3030" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buff" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -52,6 +50,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -62,6 +61,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -188,6 +188,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -195,12 +196,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -235,7 +238,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -245,17 +248,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -533,28 +530,28 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.375" customWidth="1"/>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="3" width="29.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.36328125" customWidth="1"/>
+    <col min="2" max="2" width="19.6328125" customWidth="1"/>
+    <col min="3" max="3" width="29.36328125" style="2" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.90625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -567,49 +564,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="177" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>"buff_"&amp;E4&amp;"_"&amp;C4</f>
         <v>buff_mana_max_forever</v>
@@ -620,14 +617,14 @@
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" ref="A5:A12" si="0">"buff_"&amp;E5&amp;"_"&amp;C5</f>
         <v>buff_bullet_speed_ratio_forever</v>
@@ -645,7 +642,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>buff_player_life_addi_disposable</v>
@@ -663,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>buff_danma_times_forever</v>
@@ -681,7 +678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>buff_defence_melee_forever</v>
@@ -699,7 +696,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>buff_player_bullet_damage_ratio_forever</v>
@@ -717,7 +714,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>buff_player_hp_disposable</v>
@@ -735,7 +732,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>buff_mana_disposable</v>
@@ -753,7 +750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>buff_mana_cost_forever</v>
@@ -771,14 +768,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="2">
